--- a/PASS/PASS 05-12-25.xlsx
+++ b/PASS/PASS 05-12-25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>KKMCR0031</t>
   </si>
@@ -177,9 +177,6 @@
     <t>ROUGH STONE</t>
   </si>
   <si>
-    <t>JEGATHESH</t>
-  </si>
-  <si>
     <t>KKM000000156655/2025</t>
   </si>
   <si>
@@ -190,6 +187,15 @@
   </si>
   <si>
     <t>RATHISH</t>
+  </si>
+  <si>
+    <t>JEGATHEESH</t>
+  </si>
+  <si>
+    <t>KKM000000156270/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577051</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,6 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +674,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -680,7 +687,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -689,11 +696,11 @@
         <v>48</v>
       </c>
       <c r="H3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -706,7 +713,7 @@
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
@@ -715,11 +722,11 @@
         <v>48</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -732,7 +739,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
@@ -741,11 +748,11 @@
         <v>48</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -758,7 +765,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -771,7 +778,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -784,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
@@ -793,11 +800,11 @@
         <v>48</v>
       </c>
       <c r="H7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -810,7 +817,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
@@ -819,11 +826,11 @@
         <v>48</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -836,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>19</v>
@@ -849,7 +856,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -862,7 +869,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
@@ -871,11 +878,11 @@
         <v>48</v>
       </c>
       <c r="H10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -888,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -897,11 +904,11 @@
         <v>48</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -914,57 +921,83 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="1">
-        <f>SUM(H3:H13)</f>
-        <v>48</v>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="1">
+        <f>SUM(H3:H14)</f>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1006,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PASS/PASS 05-12-25.xlsx
+++ b/PASS/PASS 05-12-25.xlsx
@@ -304,6 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -322,7 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,16 +636,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -674,7 +674,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -700,7 +700,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -752,7 +752,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -778,7 +778,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -804,7 +804,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -856,7 +856,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -908,7 +908,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -934,7 +934,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -960,7 +960,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -986,15 +986,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="1">
         <f>SUM(H3:H14)</f>
         <v>56</v>
